--- a/1차프로젝트/군집3(target_label=1)describe.xlsx
+++ b/1차프로젝트/군집3(target_label=1)describe.xlsx
@@ -485,13 +485,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1393</v>
+        <v>2138</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3718592964824121</v>
+        <v>0.3166510757717493</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4834746754458769</v>
+        <v>0.4652788707465498</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2251</v>
+        <v>1403</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3158596179475788</v>
+        <v>0.3706343549536707</v>
       </c>
       <c r="D3" t="n">
-        <v>0.464960601264853</v>
+        <v>0.483146882135867</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -543,13 +543,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2134</v>
+        <v>2237</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3163074039362699</v>
+        <v>0.3160482789450156</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4651434364535927</v>
+        <v>0.4650359531688501</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
